--- a/const/gold_mines.xlsx
+++ b/const/gold_mines.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3615" yWindow="-165" windowWidth="10815" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="金矿" sheetId="8" r:id="rId1"/>
+    <sheet name="公会金矿" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野怪type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,7 +421,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,7 +470,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -468,7 +481,7 @@
         <v>250</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -479,7 +492,7 @@
         <v>300</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -490,7 +503,7 @@
         <v>350</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -501,7 +514,7 @@
         <v>400</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -512,7 +525,7 @@
         <v>450</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -523,7 +536,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -534,7 +547,7 @@
         <v>550</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -545,7 +558,7 @@
         <v>600</v>
       </c>
       <c r="C12" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -556,7 +569,7 @@
         <v>650</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -567,7 +580,7 @@
         <v>700</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -578,7 +591,7 @@
         <v>750</v>
       </c>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -589,7 +602,7 @@
         <v>800</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -600,7 +613,7 @@
         <v>850</v>
       </c>
       <c r="C17" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -611,7 +624,7 @@
         <v>900</v>
       </c>
       <c r="C18" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -622,7 +635,7 @@
         <v>950</v>
       </c>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -633,7 +646,7 @@
         <v>1000</v>
       </c>
       <c r="C20" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -644,15 +657,86 @@
         <v>1050</v>
       </c>
       <c r="C21" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="4"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/const/gold_mines.xlsx
+++ b/const/gold_mines.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="-165" windowWidth="10815" windowHeight="9960"/>
+    <workbookView xWindow="3620" yWindow="-160" windowWidth="25060" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="金矿" sheetId="8" r:id="rId1"/>
     <sheet name="公会金矿" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +83,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,8 +119,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -118,8 +147,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,16 +451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -440,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -451,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -462,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -473,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -484,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -495,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -506,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -517,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -528,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -539,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -550,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -561,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -572,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -583,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -594,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -605,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -616,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -627,7 +658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -638,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -649,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -660,7 +691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -674,24 +705,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -702,41 +738,244 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1200</v>
+      <c r="B2" s="4">
+        <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2400</v>
+      <c r="B3" s="4">
+        <v>150</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>3600</v>
+      <c r="B4" s="4">
+        <v>200</v>
       </c>
       <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>250</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>350</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>400</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>450</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>500</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>550</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>600</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>650</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>700</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>750</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>800</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>850</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>900</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>950</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C22" s="1">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/const/gold_mines.xlsx
+++ b/const/gold_mines.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="-160" windowWidth="25060" windowHeight="16320" activeTab="1"/>
+    <workbookView xWindow="9760" yWindow="140" windowWidth="25060" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="金矿" sheetId="8" r:id="rId1"/>
-    <sheet name="公会金矿" sheetId="9" r:id="rId2"/>
+    <sheet name="normal" sheetId="8" r:id="rId1"/>
+    <sheet name="league" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -490,7 +490,7 @@
         <v>150</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -501,7 +501,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -534,7 +534,7 @@
         <v>350</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -545,7 +545,7 @@
         <v>400</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -556,7 +556,7 @@
         <v>450</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -567,7 +567,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -578,7 +578,7 @@
         <v>550</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -589,7 +589,7 @@
         <v>600</v>
       </c>
       <c r="C12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -600,7 +600,7 @@
         <v>650</v>
       </c>
       <c r="C13" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -611,7 +611,7 @@
         <v>700</v>
       </c>
       <c r="C14" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -622,7 +622,7 @@
         <v>750</v>
       </c>
       <c r="C15" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -633,7 +633,7 @@
         <v>800</v>
       </c>
       <c r="C16" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -644,7 +644,7 @@
         <v>850</v>
       </c>
       <c r="C17" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -655,7 +655,7 @@
         <v>900</v>
       </c>
       <c r="C18" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -666,7 +666,7 @@
         <v>950</v>
       </c>
       <c r="C19" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -677,7 +677,7 @@
         <v>1000</v>
       </c>
       <c r="C20" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -688,7 +688,7 @@
         <v>1050</v>
       </c>
       <c r="C21" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -699,7 +699,7 @@
         <v>1100</v>
       </c>
       <c r="C22" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +719,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -757,7 +757,7 @@
         <v>150</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -768,7 +768,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -801,7 +801,7 @@
         <v>350</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -812,7 +812,7 @@
         <v>400</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -823,7 +823,7 @@
         <v>450</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -834,7 +834,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -845,7 +845,7 @@
         <v>550</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -856,7 +856,7 @@
         <v>600</v>
       </c>
       <c r="C12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -867,7 +867,7 @@
         <v>650</v>
       </c>
       <c r="C13" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -878,7 +878,7 @@
         <v>700</v>
       </c>
       <c r="C14" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -889,7 +889,7 @@
         <v>750</v>
       </c>
       <c r="C15" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -900,7 +900,7 @@
         <v>800</v>
       </c>
       <c r="C16" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -911,7 +911,7 @@
         <v>850</v>
       </c>
       <c r="C17" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -922,7 +922,7 @@
         <v>900</v>
       </c>
       <c r="C18" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -933,7 +933,7 @@
         <v>950</v>
       </c>
       <c r="C19" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -944,7 +944,7 @@
         <v>1000</v>
       </c>
       <c r="C20" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -955,7 +955,7 @@
         <v>1050</v>
       </c>
       <c r="C21" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -966,7 +966,7 @@
         <v>1100</v>
       </c>
       <c r="C22" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/const/gold_mines.xlsx
+++ b/const/gold_mines.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="140" windowWidth="25060" windowHeight="16320" activeTab="1"/>
+    <workbookView xWindow="-200" yWindow="0" windowWidth="19320" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="8" r:id="rId1"/>
     <sheet name="league" sheetId="9" r:id="rId2"/>
+    <sheet name="upgrade" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +44,50 @@
   </si>
   <si>
     <t>野怪type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp(Player)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,6 +189,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -460,7 +520,7 @@
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -470,8 +530,17 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -481,8 +550,18 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -492,8 +571,17 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1">
+        <v>500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>500</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -503,8 +591,18 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1">
+        <v>800</v>
+      </c>
+      <c r="E4" s="1">
+        <v>800</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -514,8 +612,17 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -525,8 +632,18 @@
       <c r="C6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="F6" s="4">
+        <v>80</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -536,8 +653,17 @@
       <c r="C7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3500</v>
+      </c>
+      <c r="F7" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -547,8 +673,18 @@
       <c r="C8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>220</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -558,8 +694,17 @@
       <c r="C9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7500</v>
+      </c>
+      <c r="F9" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -569,8 +714,18 @@
       <c r="C10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>440</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -580,8 +735,17 @@
       <c r="C11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1">
+        <v>14000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14000</v>
+      </c>
+      <c r="F11" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -591,8 +755,18 @@
       <c r="C12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1">
+        <v>19000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>19000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>800</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -602,8 +776,17 @@
       <c r="C13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -613,8 +796,18 @@
       <c r="C14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1">
+        <v>33000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>33000</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1320</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -624,8 +817,17 @@
       <c r="C15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1">
+        <v>44000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44000</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -635,8 +837,18 @@
       <c r="C16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1">
+        <v>59000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>59000</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2040</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -646,8 +858,17 @@
       <c r="C17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1">
+        <v>79000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>79000</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -657,8 +878,18 @@
       <c r="C18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2960</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -668,8 +899,18 @@
       <c r="C19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -679,8 +920,17 @@
       <c r="C20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -690,8 +940,18 @@
       <c r="C21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4800</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -700,6 +960,15 @@
       </c>
       <c r="C22" s="1">
         <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5560</v>
       </c>
     </row>
   </sheetData>
@@ -716,10 +985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -727,7 +996,7 @@
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,8 +1006,20 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -748,8 +1029,20 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>500</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -759,8 +1052,22 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1">
+        <f>I2*J2</f>
+        <v>5000</v>
+      </c>
+      <c r="E3" s="1">
+        <f>I2*J2</f>
+        <v>5000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>800</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -770,8 +1077,22 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1">
+        <f>I3*J3</f>
+        <v>8000</v>
+      </c>
+      <c r="E4" s="1">
+        <f>I3*J3</f>
+        <v>8000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -781,8 +1102,22 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1">
+        <f>I4*J4</f>
+        <v>12000</v>
+      </c>
+      <c r="E5" s="1">
+        <f>I4*J4</f>
+        <v>12000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2100</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -792,8 +1127,22 @@
       <c r="C6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1">
+        <f>I5*J5</f>
+        <v>21000</v>
+      </c>
+      <c r="E6" s="1">
+        <f>I5*J5</f>
+        <v>21000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -803,8 +1152,22 @@
       <c r="C7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1">
+        <f>I6*J6</f>
+        <v>35000</v>
+      </c>
+      <c r="E7" s="1">
+        <f>I6*J6</f>
+        <v>35000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -814,8 +1177,22 @@
       <c r="C8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1">
+        <f>I7*J7</f>
+        <v>50000</v>
+      </c>
+      <c r="E8" s="1">
+        <f>I7*J7</f>
+        <v>50000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7500</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -825,8 +1202,22 @@
       <c r="C9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1">
+        <f>I8*J8</f>
+        <v>75000</v>
+      </c>
+      <c r="E9" s="1">
+        <f>I8*J8</f>
+        <v>75000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -836,8 +1227,22 @@
       <c r="C10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1">
+        <f>I9*J9</f>
+        <v>100000</v>
+      </c>
+      <c r="E10" s="1">
+        <f>I9*J9</f>
+        <v>100000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>14000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -847,8 +1252,22 @@
       <c r="C11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1">
+        <f>I10*J10</f>
+        <v>140000</v>
+      </c>
+      <c r="E11" s="1">
+        <f>I10*J10</f>
+        <v>140000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>19000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -858,8 +1277,22 @@
       <c r="C12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1">
+        <f>I11*J11</f>
+        <v>190000</v>
+      </c>
+      <c r="E12" s="1">
+        <f>I11*J11</f>
+        <v>190000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>25000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -869,8 +1302,22 @@
       <c r="C13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1">
+        <f>I12*J12</f>
+        <v>250000</v>
+      </c>
+      <c r="E13" s="1">
+        <f>I12*J12</f>
+        <v>250000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>33000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -880,8 +1327,22 @@
       <c r="C14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1">
+        <f>I13*J13</f>
+        <v>330000</v>
+      </c>
+      <c r="E14" s="1">
+        <f>I13*J13</f>
+        <v>330000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -891,8 +1352,22 @@
       <c r="C15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1">
+        <f>I14*J14</f>
+        <v>440000</v>
+      </c>
+      <c r="E15" s="1">
+        <f>I14*J14</f>
+        <v>440000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>59000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -902,8 +1377,22 @@
       <c r="C16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1">
+        <f>I15*J15</f>
+        <v>590000</v>
+      </c>
+      <c r="E16" s="1">
+        <f>I15*J15</f>
+        <v>590000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>79000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -913,8 +1402,22 @@
       <c r="C17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1">
+        <f>I16*J16</f>
+        <v>790000</v>
+      </c>
+      <c r="E17" s="1">
+        <f>I16*J16</f>
+        <v>790000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -924,8 +1427,22 @@
       <c r="C18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1">
+        <f>I17*J17</f>
+        <v>1000000</v>
+      </c>
+      <c r="E18" s="1">
+        <f>I17*J17</f>
+        <v>1000000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -935,8 +1452,22 @@
       <c r="C19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1">
+        <f>I18*J18</f>
+        <v>1000000</v>
+      </c>
+      <c r="E19" s="1">
+        <f>I18*J18</f>
+        <v>1000000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -946,8 +1477,22 @@
       <c r="C20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1">
+        <f>I19*J19</f>
+        <v>1000000</v>
+      </c>
+      <c r="E20" s="1">
+        <f>I19*J19</f>
+        <v>1000000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -957,8 +1502,22 @@
       <c r="C21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1">
+        <f>I20*J20</f>
+        <v>1000000</v>
+      </c>
+      <c r="E21" s="1">
+        <f>I20*J20</f>
+        <v>1000000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -967,6 +1526,14 @@
       </c>
       <c r="C22" s="1">
         <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <f>I21*J21</f>
+        <v>1000000</v>
+      </c>
+      <c r="E22" s="1">
+        <f>I21*J21</f>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
@@ -978,4 +1545,1393 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6">
+        <v>24</v>
+      </c>
+      <c r="S2" s="3">
+        <v>5</v>
+      </c>
+      <c r="T2" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="4">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H3" s="1">
+        <f>G3/2</f>
+        <v>700</v>
+      </c>
+      <c r="I3">
+        <f>G3/4</f>
+        <v>350</v>
+      </c>
+      <c r="J3">
+        <f>G3/F3</f>
+        <v>350</v>
+      </c>
+      <c r="L3" s="4">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <f>L3*1</f>
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <f>M3*24</f>
+        <v>2400</v>
+      </c>
+      <c r="O3">
+        <f>N3/4</f>
+        <v>600</v>
+      </c>
+      <c r="P3">
+        <f>O3*2</f>
+        <v>1200</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S23" si="0">D3*5</f>
+        <v>500</v>
+      </c>
+      <c r="T3" s="1">
+        <f>S3*24</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>800</v>
+      </c>
+      <c r="C4" s="1">
+        <v>800</v>
+      </c>
+      <c r="D4" s="4">
+        <v>150</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2240</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H24" si="1">G4/2</f>
+        <v>1120</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I24" si="2">G4/4</f>
+        <v>560</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J23" si="3">G4/F4</f>
+        <v>589.47368421052636</v>
+      </c>
+      <c r="L4" s="4">
+        <v>150</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M24" si="4">L4*1</f>
+        <v>150</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N24" si="5">M4*24</f>
+        <v>3600</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O24" si="6">N4/4</f>
+        <v>900</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P24" si="7">O4*2</f>
+        <v>1800</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T23" si="8">S4*24</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4340</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>2170</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1085</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>1205.5555555555554</v>
+      </c>
+      <c r="L5" s="4">
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>4800</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="8"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>250</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7279.9999999999991</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>3639.9999999999995</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1819.9999999999998</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>2141.1764705882351</v>
+      </c>
+      <c r="L6" s="4">
+        <v>250</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3500</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D7" s="4">
+        <v>300</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11060</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>5530</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2765</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>3456.25</v>
+      </c>
+      <c r="L7" s="4">
+        <v>300</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>7200</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>3600</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="8"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>350</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15680</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>7840</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>3920</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>5226.666666666667</v>
+      </c>
+      <c r="L8" s="4">
+        <v>350</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>8400</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>2100</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>4200</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="8"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7500</v>
+      </c>
+      <c r="D9" s="4">
+        <v>400</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>21140</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>10570</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>5285</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>7550.0000000000009</v>
+      </c>
+      <c r="L9" s="4">
+        <v>400</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>9600</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>4800</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="8"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>450</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>27440</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>13720</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>6860</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>10553.846153846154</v>
+      </c>
+      <c r="L10" s="4">
+        <v>450</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>10800</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>5400</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="8"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>500</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>34580</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>17290</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>8645</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>14408.333333333334</v>
+      </c>
+      <c r="L11" s="4">
+        <v>500</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="8"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>19000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>550</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42560</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>21280</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>10640</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>19345.454545454544</v>
+      </c>
+      <c r="L12" s="4">
+        <v>550</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>13200</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>3300</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>6600</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>2750</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="8"/>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>600</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>51380</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>25690</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>12845</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>25690</v>
+      </c>
+      <c r="L13" s="4">
+        <v>600</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>3600</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>7200</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="8"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>33000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>33000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>650</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>61039.999999999993</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>30519.999999999996</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>15259.999999999998</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>33911.111111111109</v>
+      </c>
+      <c r="L14" s="4">
+        <v>650</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>15600</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>3900</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>7800</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="0"/>
+        <v>3250</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="8"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>700</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>71540</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>35770</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>17885</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>44712.5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>700</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>16800</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>4200</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>8400</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="8"/>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>59000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>59000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>750</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>82880</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>41440</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>20720</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>59200.000000000007</v>
+      </c>
+      <c r="L16" s="4">
+        <v>750</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>18000</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>4500</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>9000</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="8"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>79000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>79000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>800</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>95060</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>47530</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>23765</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>79216.666666666672</v>
+      </c>
+      <c r="L17" s="4">
+        <v>800</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>19200</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>4800</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>9600</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="8"/>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>850</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>108080</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>54040</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>27020</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>108080</v>
+      </c>
+      <c r="L18" s="4">
+        <v>850</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>20400</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>5100</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>10200</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="8"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D19" s="4">
+        <v>900</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>121939.99999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>60969.999999999993</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>30484.999999999996</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>121939.99999999999</v>
+      </c>
+      <c r="L19" s="4">
+        <v>900</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>21600</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>5400</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>10800</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="8"/>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>135000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>135000</v>
+      </c>
+      <c r="D20" s="4">
+        <v>950</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>136640</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>68320</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>34160</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>136640</v>
+      </c>
+      <c r="L20" s="4">
+        <v>950</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>22800</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>5700</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>11400</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="0"/>
+        <v>4750</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="8"/>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>152180</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>76090</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>38045</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>152180</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>24000</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>12000</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="8"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1050</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>168560</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>84280</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>42140</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>168560</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1050</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>1050</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>25200</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>6300</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>12600</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="8"/>
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>90000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>90000</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>185780</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>92890</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>46445</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>185780</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1100</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>1100</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>26400</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>6600</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>13200</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="8"/>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>203000</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>101500</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>50750</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1150</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>1150</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>27600</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>6900</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="7"/>
+        <v>13800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>